--- a/dokumanlar/LVT/Arayüz.xlsx
+++ b/dokumanlar/LVT/Arayüz.xlsx
@@ -546,45 +546,6 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -635,6 +596,45 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1141,1671 +1141,1624 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:V11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="20" width="11.5703125"/>
-    <col min="21" max="21" width="11.5703125" style="14"/>
-    <col min="22" max="22" width="27.7109375" style="14" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" style="15" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" style="1"/>
+    <col min="22" max="22" width="27.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="2" customWidth="1"/>
     <col min="24" max="32" width="11.5703125"/>
-    <col min="33" max="33" width="11.5703125" style="16"/>
+    <col min="33" max="33" width="11.5703125" style="3"/>
     <col min="34" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11"/>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="24"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="12" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="38">
         <v>80.2</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="10"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="13"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="10"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="27"/>
-      <c r="AG9" s="28" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="14"/>
+      <c r="AG9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH9" s="29" t="s">
+      <c r="AH9" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="12" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="36">
         <f>Z11*AC11</f>
-        <v>22.210309862000003</v>
-      </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
-      <c r="Z10" s="30" t="s">
+        <v>3492.4619246861962</v>
+      </c>
+      <c r="V10" s="36"/>
+      <c r="W10" s="31"/>
+      <c r="Z10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="30" t="s">
+      <c r="AA10" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB10" s="30" t="s">
+      <c r="AB10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC10" s="30" t="s">
+      <c r="AC10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="31" t="s">
+      <c r="AD10" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF10" s="30">
+      <c r="AF10" s="17">
         <v>500</v>
       </c>
-      <c r="AG10" s="32">
+      <c r="AG10" s="19">
         <v>189.47368421052599</v>
       </c>
-      <c r="AH10" s="33">
+      <c r="AH10" s="20">
         <v>535.99344896895695</v>
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="10"/>
-      <c r="Z11" s="8">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0.69</v>
-      </c>
-      <c r="AB11" s="8">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="31"/>
+      <c r="Z11" s="33">
+        <v>0.879</v>
+      </c>
+      <c r="AA11" s="33">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB11" s="33">
         <v>1004</v>
       </c>
-      <c r="AC11" s="7">
-        <v>39.732218000000003</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>112.396655</v>
-      </c>
-      <c r="AF11" s="30">
+      <c r="AC11" s="39">
+        <v>3973.2217573221801</v>
+      </c>
+      <c r="AD11" s="33">
+        <v>11239.665508690699</v>
+      </c>
+      <c r="AF11" s="17">
         <v>2000</v>
       </c>
-      <c r="AG11" s="32">
+      <c r="AG11" s="19">
         <v>764</v>
       </c>
-      <c r="AH11" s="33">
+      <c r="AH11" s="20">
         <v>2161.24469589816</v>
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="13"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="12" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="36">
         <f>AA11*AD11</f>
-        <v>77.553691949999987</v>
-      </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AF12" s="30">
+        <v>5024.1304823847431</v>
+      </c>
+      <c r="V12" s="36"/>
+      <c r="W12" s="31"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AF12" s="17">
         <v>5000</v>
       </c>
-      <c r="AG12" s="32">
+      <c r="AG12" s="19">
         <v>1859.53307392996</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="20">
         <v>5260.3481582177101</v>
       </c>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="10"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AF13" s="30">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="31"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AF13" s="17">
         <v>10000</v>
       </c>
-      <c r="AG13" s="32">
+      <c r="AG13" s="19">
         <v>3973.2217573221801</v>
       </c>
-      <c r="AH13" s="33">
+      <c r="AH13" s="20">
         <v>11239.665508690699</v>
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="12" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="30">
         <f>U10*U10*AB11</f>
-        <v>495271.05562271882</v>
-      </c>
-      <c r="V14" s="6"/>
-      <c r="W14" s="10"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AF14" s="30">
+        <v>12246079456.564342</v>
+      </c>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AF14" s="17">
         <v>30000</v>
       </c>
-      <c r="AG14" s="32">
+      <c r="AG14" s="19">
         <v>18542.168674698802</v>
       </c>
-      <c r="AH14" s="33">
+      <c r="AH14" s="20">
         <v>52453.093846389798</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="10"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AF15" s="30">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="31"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AF15" s="17">
         <v>45000</v>
       </c>
-      <c r="AG15" s="32">
+      <c r="AG15" s="19">
         <v>45936.642027455098</v>
       </c>
-      <c r="AH15" s="33">
+      <c r="AH15" s="20">
         <v>129948.06797017</v>
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AF16" s="30">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="14"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AF16" s="17">
         <v>60000</v>
       </c>
-      <c r="AG16" s="32">
+      <c r="AG16" s="19">
         <v>46968.75</v>
       </c>
-      <c r="AH16" s="33">
+      <c r="AH16" s="20">
         <v>132867.75106082001</v>
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="12" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="11">
+      <c r="U17" s="38">
         <v>80</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="10"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AF17" s="30">
+      <c r="V17" s="38"/>
+      <c r="W17" s="31"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AF17" s="17">
         <v>75000</v>
       </c>
-      <c r="AG17" s="32">
+      <c r="AG17" s="19">
         <v>45888.888888888898</v>
       </c>
-      <c r="AH17" s="33">
+      <c r="AH17" s="20">
         <v>129812.98129813001</v>
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="13"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="10"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="31"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="27"/>
-      <c r="Z19" s="34"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="14"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="27"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AG20" s="28" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="14"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AG20" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH20" s="29" t="s">
+      <c r="AH20" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="12" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="36">
         <f>Z22*AC22</f>
         <v>38.738912550000002</v>
       </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-      <c r="Z21" s="30" t="s">
+      <c r="V21" s="36"/>
+      <c r="W21" s="31"/>
+      <c r="Z21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA21" s="30" t="s">
+      <c r="AA21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB21" s="30" t="s">
+      <c r="AB21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC21" s="30" t="s">
+      <c r="AC21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD21" s="31" t="s">
+      <c r="AD21" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF21" s="30">
+      <c r="AF21" s="17">
         <v>500</v>
       </c>
-      <c r="AG21" s="32">
+      <c r="AG21" s="19">
         <v>194.190871369295</v>
       </c>
-      <c r="AH21" s="33">
+      <c r="AH21" s="20">
         <v>549.33768421299806</v>
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
-      <c r="Z22" s="8">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="31"/>
+      <c r="Z22" s="33">
         <v>0.97499999999999998</v>
       </c>
-      <c r="AA22" s="8">
+      <c r="AA22" s="33">
         <v>0.63</v>
       </c>
-      <c r="AB22" s="8">
+      <c r="AB22" s="33">
         <v>1003</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="34">
         <v>39.732218000000003</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="35">
         <v>112.396655</v>
       </c>
-      <c r="AF22" s="30">
+      <c r="AF22" s="17">
         <v>2000</v>
       </c>
-      <c r="AG22" s="32">
+      <c r="AG22" s="19">
         <v>770.16129032258095</v>
       </c>
-      <c r="AH22" s="33">
+      <c r="AH22" s="20">
         <v>2178.6740886070202</v>
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="13"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="12" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="36">
         <f>AA22*AD22</f>
         <v>70.809892649999995</v>
       </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="4"/>
-      <c r="AF23" s="30">
+      <c r="V23" s="36"/>
+      <c r="W23" s="31"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="35"/>
+      <c r="AF23" s="17">
         <v>5000</v>
       </c>
-      <c r="AG23" s="32">
+      <c r="AG23" s="19">
         <v>1942.6829268292699</v>
       </c>
-      <c r="AH23" s="33">
+      <c r="AH23" s="20">
         <v>5495.5669783006197</v>
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AF24" s="30">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="31"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AF24" s="17">
         <v>10000</v>
       </c>
-      <c r="AG24" s="32">
+      <c r="AG24" s="19">
         <v>3891.8032786885201</v>
       </c>
-      <c r="AH24" s="33">
+      <c r="AH24" s="20">
         <v>11009.344494168399</v>
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="12" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="30">
         <f>U21*U21*AB22</f>
         <v>1505205.4555932174</v>
       </c>
-      <c r="V25" s="6"/>
-      <c r="W25" s="10"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AF25" s="30">
+      <c r="V25" s="30"/>
+      <c r="W25" s="31"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AF25" s="17">
         <v>30000</v>
       </c>
-      <c r="AG25" s="32">
+      <c r="AG25" s="19">
         <v>18321.428571428602</v>
       </c>
-      <c r="AH25" s="33">
+      <c r="AH25" s="20">
         <v>51828.652252980399</v>
       </c>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="10"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AF26" s="30">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AF26" s="17">
         <v>45000</v>
       </c>
-      <c r="AG26" s="32">
+      <c r="AG26" s="19">
         <v>45456.635318704299</v>
       </c>
-      <c r="AH26" s="33">
+      <c r="AH26" s="20">
         <v>128590.19892137</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="27"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34"/>
-      <c r="AC27" s="34"/>
-      <c r="AF27" s="30">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="14"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AB27" s="21"/>
+      <c r="AC27" s="21"/>
+      <c r="AF27" s="17">
         <v>60000</v>
       </c>
-      <c r="AG27" s="32">
+      <c r="AG27" s="19">
         <v>45893.129770992397</v>
       </c>
-      <c r="AH27" s="33">
+      <c r="AH27" s="20">
         <v>129824.978135763</v>
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="13"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="12" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U28" s="11">
+      <c r="U28" s="38">
         <v>80.400000000000006</v>
       </c>
-      <c r="V28" s="11"/>
-      <c r="W28" s="10"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AF28" s="30">
+      <c r="V28" s="38"/>
+      <c r="W28" s="31"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AF28" s="17">
         <v>75000</v>
       </c>
-      <c r="AG28" s="32">
+      <c r="AG28" s="19">
         <v>45607.361963190197</v>
       </c>
-      <c r="AH28" s="33">
+      <c r="AH28" s="20">
         <v>129016.582639859</v>
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="10"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="31"/>
+      <c r="Z29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AB29" s="21"/>
+      <c r="AC29" s="21"/>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="27"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="14"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="27"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AG31" s="28" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="14"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AG31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH31" s="29" t="s">
+      <c r="AH31" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="12" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="9">
+      <c r="U32" s="36">
         <f>Z33*AC33</f>
         <v>36.474176124000003</v>
       </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="10"/>
-      <c r="Z32" s="30" t="s">
+      <c r="V32" s="36"/>
+      <c r="W32" s="31"/>
+      <c r="Z32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AA32" s="30" t="s">
+      <c r="AA32" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB32" s="30" t="s">
+      <c r="AB32" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AC32" s="30" t="s">
+      <c r="AC32" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD32" s="31" t="s">
+      <c r="AD32" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF32" s="30">
+      <c r="AF32" s="17">
         <v>500</v>
       </c>
-      <c r="AG32" s="32">
+      <c r="AG32" s="19">
         <v>197.46835443038</v>
       </c>
-      <c r="AH32" s="33">
+      <c r="AH32" s="20">
         <v>558.60920630941905</v>
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="13"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="10"/>
-      <c r="Z33" s="8">
+      <c r="A33" s="37"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="31"/>
+      <c r="Z33" s="33">
         <v>0.91800000000000004</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="33">
         <v>0.7</v>
       </c>
-      <c r="AB33" s="8">
+      <c r="AB33" s="33">
         <v>1005</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AC33" s="34">
         <v>39.732218000000003</v>
       </c>
-      <c r="AD33" s="4">
+      <c r="AD33" s="35">
         <v>112.396655</v>
       </c>
-      <c r="AF33" s="30">
+      <c r="AF33" s="17">
         <v>2000</v>
       </c>
-      <c r="AG33" s="32">
+      <c r="AG33" s="19">
         <v>779.59183673469397</v>
       </c>
-      <c r="AH33" s="33">
+      <c r="AH33" s="20">
         <v>2205.3517305083301</v>
       </c>
     </row>
     <row r="34" spans="1:34">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="12" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U34" s="9">
+      <c r="U34" s="36">
         <f>AA33*AD33</f>
         <v>78.677658499999993</v>
       </c>
-      <c r="V34" s="9"/>
-      <c r="W34" s="10"/>
-      <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
-      <c r="AD34" s="4"/>
-      <c r="AF34" s="30">
+      <c r="V34" s="36"/>
+      <c r="W34" s="31"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="35"/>
+      <c r="AF34" s="17">
         <v>5000</v>
       </c>
-      <c r="AG34" s="32">
+      <c r="AG34" s="19">
         <v>1927.0161290322601</v>
       </c>
-      <c r="AH34" s="33">
+      <c r="AH34" s="20">
         <v>5451.2478897659403</v>
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="10"/>
-      <c r="AF35" s="30">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="36"/>
+      <c r="V35" s="36"/>
+      <c r="W35" s="31"/>
+      <c r="AF35" s="17">
         <v>10000</v>
       </c>
-      <c r="AG35" s="32">
+      <c r="AG35" s="19">
         <v>3907.81893004115</v>
       </c>
-      <c r="AH35" s="33">
+      <c r="AH35" s="20">
         <v>11054.6504385888</v>
       </c>
     </row>
     <row r="36" spans="1:34">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="12" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="6">
+      <c r="U36" s="30">
         <f>U32*U32*AB33</f>
         <v>1337017.3515441946</v>
       </c>
-      <c r="V36" s="6"/>
-      <c r="W36" s="10"/>
-      <c r="AF36" s="30">
+      <c r="V36" s="30"/>
+      <c r="W36" s="31"/>
+      <c r="AF36" s="17">
         <v>30000</v>
       </c>
-      <c r="AG36" s="32">
+      <c r="AG36" s="19">
         <v>18000</v>
       </c>
-      <c r="AH36" s="33">
+      <c r="AH36" s="20">
         <v>50919.377652050898</v>
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="10"/>
-      <c r="AF37" s="30">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="31"/>
+      <c r="AF37" s="17">
         <v>45000</v>
       </c>
-      <c r="AG37" s="32">
+      <c r="AG37" s="19">
         <v>44074.974670719399</v>
       </c>
-      <c r="AH37" s="33">
+      <c r="AH37" s="20">
         <v>124681.68223683001</v>
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="24"/>
-      <c r="AF38" s="30">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="11"/>
+      <c r="AF38" s="17">
         <v>60000</v>
       </c>
-      <c r="AG38" s="32">
+      <c r="AG38" s="19">
         <v>45893.129770992397</v>
       </c>
-      <c r="AH38" s="33">
+      <c r="AH38" s="20">
         <v>129824.978135763</v>
       </c>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="24"/>
-      <c r="AF39" s="30">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="11"/>
+      <c r="AF39" s="17">
         <v>75000</v>
       </c>
-      <c r="AG39" s="32">
+      <c r="AG39" s="19">
         <v>46173.9130434783</v>
       </c>
-      <c r="AH39" s="33">
+      <c r="AH39" s="20">
         <v>130619.273107435</v>
       </c>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="24"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="11"/>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="23"/>
-      <c r="W41" s="24"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="11"/>
     </row>
     <row r="42" spans="1:34">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="24"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="11"/>
     </row>
     <row r="43" spans="1:34">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="22"/>
-      <c r="S43" s="22"/>
-      <c r="T43" s="22"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="24"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="11"/>
     </row>
     <row r="44" spans="1:34">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="24"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="11"/>
     </row>
     <row r="45" spans="1:34" ht="33" customHeight="1">
-      <c r="A45" s="35"/>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="37"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="38"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="25"/>
     </row>
     <row r="46" spans="1:34" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:V7"/>
@@ -2817,6 +2770,53 @@
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="AA33:AA34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2848,375 +2848,375 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="30">
+      <c r="A3" s="17">
         <v>500</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="26">
         <v>2.4700000000000002</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="26">
         <v>2.41</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="26">
         <v>2.37</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E10" si="0">K3/B3</f>
         <v>189.4736842105263</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="27">
         <f t="shared" ref="F3:F10" si="1">K3/C3</f>
         <v>194.1908713692946</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="27">
         <f t="shared" ref="G3:G10" si="2">K3/D3</f>
         <v>197.46835443037975</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="28">
         <f t="shared" ref="H3:H10" si="3">(K3/0.707)/(B3/2)</f>
         <v>535.99344896895707</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="28">
         <f t="shared" ref="I3:I10" si="4">(K3/0.707)/(C3/2)</f>
         <v>549.33768421299749</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="28">
         <f t="shared" ref="J3:J10" si="5">(K3/0.707)/(D3/2)</f>
         <v>558.60920630941939</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="26">
         <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="30">
+      <c r="A4" s="17">
         <v>2000</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="26">
         <v>2.5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="26">
         <v>2.48</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="26">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="27">
         <f t="shared" si="0"/>
         <v>764</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
         <v>770.16129032258061</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="27">
         <f t="shared" si="2"/>
         <v>779.59183673469386</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="28">
         <f t="shared" si="3"/>
         <v>2161.2446958981614</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="28">
         <f t="shared" si="4"/>
         <v>2178.6740886070174</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="28">
         <f t="shared" si="5"/>
         <v>2205.3517305083278</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="26">
         <v>1910</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="30">
+      <c r="A5" s="17">
         <v>5000</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="26">
         <v>2.57</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="26">
         <v>2.46</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="26">
         <v>2.48</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="27">
         <f t="shared" si="0"/>
         <v>1859.5330739299611</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="27">
         <f t="shared" si="1"/>
         <v>1942.6829268292684</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="27">
         <f t="shared" si="2"/>
         <v>1927.016129032258</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="28">
         <f t="shared" si="3"/>
         <v>5260.3481582177128</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="28">
         <f t="shared" si="4"/>
         <v>5495.5669783006178</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="28">
         <f t="shared" si="5"/>
         <v>5451.2478897659357</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="26">
         <v>4779</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="30">
+      <c r="A6" s="17">
         <v>10000</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="26">
         <v>2.39</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="26">
         <v>2.44</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="26">
         <v>2.4300000000000002</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="27">
         <f t="shared" si="0"/>
         <v>3973.2217573221756</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="27">
         <f t="shared" si="1"/>
         <v>3891.8032786885246</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="27">
         <f t="shared" si="2"/>
         <v>3907.8189300411518</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="28">
         <f t="shared" si="3"/>
         <v>11239.665508690738</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="28">
         <f t="shared" si="4"/>
         <v>11009.344494168387</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="28">
         <f t="shared" si="5"/>
         <v>11054.650438588833</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="26">
         <v>9496</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="30">
+      <c r="A7" s="17">
         <v>30000</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="26">
         <v>1.66</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="26">
         <v>1.68</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="26">
         <v>1.71</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="27">
         <f t="shared" si="0"/>
         <v>18542.168674698794</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="27">
         <f t="shared" si="1"/>
         <v>18321.428571428572</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="27">
         <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="28">
         <f t="shared" si="3"/>
         <v>52453.093846389806</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="28">
         <f t="shared" si="4"/>
         <v>51828.652252980406</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="28">
         <f t="shared" si="5"/>
         <v>50919.377652050927</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="26">
         <v>30780</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="30">
+      <c r="A8" s="17">
         <v>45000</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="26">
         <v>0.94699999999999995</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="26">
         <v>0.95699999999999996</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="26">
         <v>0.98699999999999999</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="27">
         <f t="shared" si="0"/>
         <v>45936.64202745512</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="27">
         <f t="shared" si="1"/>
         <v>45456.635318704284</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="27">
         <f t="shared" si="2"/>
         <v>44074.974670719355</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="28">
         <f t="shared" si="3"/>
         <v>129948.06797017009</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="28">
         <f t="shared" si="4"/>
         <v>128590.19892136997</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="28">
         <f t="shared" si="5"/>
         <v>124681.68223682985</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="26">
         <v>43502</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="30">
+      <c r="A9" s="17">
         <v>60000</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="26">
         <v>1.28</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="26">
         <v>1.31</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="26">
         <v>1.31</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="27">
         <f t="shared" si="0"/>
         <v>46968.75</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="27">
         <f t="shared" si="1"/>
         <v>45893.129770992367</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="27">
         <f t="shared" si="2"/>
         <v>45893.129770992367</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="28">
         <f t="shared" si="3"/>
         <v>132867.75106082036</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="28">
         <f t="shared" si="4"/>
         <v>129824.97813576341</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="28">
         <f t="shared" si="5"/>
         <v>129824.97813576341</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="26">
         <v>60120</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="30">
+      <c r="A10" s="17">
         <v>75000</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="26">
         <v>1.62</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="26">
         <v>1.63</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="26">
         <v>1.61</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="27">
         <f t="shared" si="0"/>
         <v>45888.888888888883</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="27">
         <f t="shared" si="1"/>
         <v>45607.361963190189</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="27">
         <f t="shared" si="2"/>
         <v>46173.913043478256</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="28">
         <f t="shared" si="3"/>
         <v>129812.98129812982</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="28">
         <f t="shared" si="4"/>
         <v>129016.5826398591</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="28">
         <f t="shared" si="5"/>
         <v>130619.27310743497</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="26">
         <v>74340</v>
       </c>
     </row>

--- a/dokumanlar/LVT/Arayüz.xlsx
+++ b/dokumanlar/LVT/Arayüz.xlsx
@@ -544,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -596,37 +596,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1141,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1283,7 +1277,7 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9"/>
@@ -1304,17 +1298,17 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="38">
+      <c r="U6" s="31">
         <v>80.2</v>
       </c>
-      <c r="V6" s="38"/>
-      <c r="W6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="37"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1333,10 +1327,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="31"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="8"/>
@@ -1414,15 +1408,15 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="36">
-        <f>Z11*AC11</f>
-        <v>3492.4619246861962</v>
-      </c>
-      <c r="V10" s="36"/>
-      <c r="W10" s="31"/>
+      <c r="U10" s="33">
+        <f>Z11*AC11/1000</f>
+        <v>16.298566265060245</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="32"/>
       <c r="Z10" s="17" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1443,7 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
@@ -1470,24 +1464,24 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="31"/>
-      <c r="Z11" s="33">
+      <c r="T11" s="30"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="32"/>
+      <c r="Z11" s="34">
         <v>0.879</v>
       </c>
-      <c r="AA11" s="33">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AB11" s="33">
+      <c r="AA11" s="34">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AB11" s="34">
         <v>1004</v>
       </c>
-      <c r="AC11" s="39">
-        <v>3973.2217573221801</v>
-      </c>
-      <c r="AD11" s="33">
-        <v>11239.665508690699</v>
+      <c r="AC11" s="35">
+        <v>18542.168674698802</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>52453.093846389798</v>
       </c>
       <c r="AF11" s="17">
         <v>2000</v>
@@ -1500,7 +1494,7 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="37"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1519,20 +1513,20 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="36">
-        <f>AA11*AD11</f>
-        <v>5024.1304823847431</v>
-      </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="31"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
+      <c r="U12" s="33">
+        <f>AA11*AD11/1000</f>
+        <v>15.998193623148889</v>
+      </c>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
       <c r="AF12" s="17">
         <v>5000</v>
       </c>
@@ -1563,10 +1557,10 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="31"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
@@ -1601,15 +1595,15 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="29" t="s">
+      <c r="T14" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="30">
-        <f>U10*U10*AB11</f>
-        <v>12246079456.564342</v>
-      </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="U14" s="36">
+        <f>U10*U10*AB11/1000</f>
+        <v>266.7058353457461</v>
+      </c>
+      <c r="V14" s="36"/>
+      <c r="W14" s="32"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
@@ -1644,10 +1638,10 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="31"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="32"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
@@ -1701,7 +1695,7 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="9"/>
@@ -1722,14 +1716,14 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="38">
+      <c r="U17" s="31">
         <v>80</v>
       </c>
-      <c r="V17" s="38"/>
-      <c r="W17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="32"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
@@ -1745,7 +1739,7 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="37"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1764,10 +1758,10 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="31"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="32"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
@@ -1857,15 +1851,15 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="29" t="s">
+      <c r="T21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="36">
-        <f>Z22*AC22</f>
-        <v>38.738912550000002</v>
-      </c>
-      <c r="V21" s="36"/>
-      <c r="W21" s="31"/>
+      <c r="U21" s="33">
+        <f>Z22*AC22/1000</f>
+        <v>15.946265060240968</v>
+      </c>
+      <c r="V21" s="33"/>
+      <c r="W21" s="32"/>
       <c r="Z21" s="17" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1886,7 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="9"/>
@@ -1913,24 +1907,24 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="31"/>
-      <c r="Z22" s="33">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="AA22" s="33">
-        <v>0.63</v>
-      </c>
-      <c r="AB22" s="33">
+      <c r="T22" s="30"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="32"/>
+      <c r="Z22" s="34">
+        <v>0.86</v>
+      </c>
+      <c r="AA22" s="34">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="AB22" s="34">
         <v>1003</v>
       </c>
-      <c r="AC22" s="34">
-        <v>39.732218000000003</v>
-      </c>
-      <c r="AD22" s="35">
-        <v>112.396655</v>
+      <c r="AC22" s="35">
+        <v>18542.168674698802</v>
+      </c>
+      <c r="AD22" s="34">
+        <v>52453.093846389798</v>
       </c>
       <c r="AF22" s="17">
         <v>2000</v>
@@ -1943,7 +1937,7 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="37"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1962,20 +1956,20 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="29" t="s">
+      <c r="T23" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="36">
+      <c r="U23" s="33">
         <f>AA22*AD22</f>
-        <v>70.809892649999995</v>
-      </c>
-      <c r="V23" s="36"/>
-      <c r="W23" s="31"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="35"/>
+        <v>22240.111790869272</v>
+      </c>
+      <c r="V23" s="33"/>
+      <c r="W23" s="32"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
       <c r="AF23" s="17">
         <v>5000</v>
       </c>
@@ -2006,10 +2000,10 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="31"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="32"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
@@ -2044,15 +2038,15 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="29" t="s">
+      <c r="T25" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="30">
-        <f>U21*U21*AB22</f>
-        <v>1505205.4555932174</v>
-      </c>
-      <c r="V25" s="30"/>
-      <c r="W25" s="31"/>
+      <c r="U25" s="36">
+        <f>U21*U21*AB22/1000</f>
+        <v>255.04621947957625</v>
+      </c>
+      <c r="V25" s="36"/>
+      <c r="W25" s="32"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
@@ -2087,10 +2081,10 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="31"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="32"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
@@ -2106,7 +2100,7 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="9"/>
@@ -2146,7 +2140,7 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="37"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2165,14 +2159,14 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="29" t="s">
+      <c r="T28" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="U28" s="38">
+      <c r="U28" s="31">
         <v>80.400000000000006</v>
       </c>
-      <c r="V28" s="38"/>
-      <c r="W28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="32"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
@@ -2207,10 +2201,10 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="31"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="32"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
@@ -2281,7 +2275,7 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="9"/>
@@ -2302,15 +2296,15 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="29" t="s">
+      <c r="T32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="36">
-        <f>Z33*AC33</f>
-        <v>36.474176124000003</v>
-      </c>
-      <c r="V32" s="36"/>
-      <c r="W32" s="31"/>
+      <c r="U32" s="33">
+        <f>Z33*AC33/1000</f>
+        <v>16.298566265060245</v>
+      </c>
+      <c r="V32" s="33"/>
+      <c r="W32" s="32"/>
       <c r="Z32" s="17" t="s">
         <v>5</v>
       </c>
@@ -2337,7 +2331,7 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="37"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2356,24 +2350,24 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="31"/>
-      <c r="Z33" s="33">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="AA33" s="33">
-        <v>0.7</v>
-      </c>
-      <c r="AB33" s="33">
+      <c r="T33" s="30"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="32"/>
+      <c r="Z33" s="34">
+        <v>0.879</v>
+      </c>
+      <c r="AA33" s="34">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB33" s="34">
         <v>1005</v>
       </c>
-      <c r="AC33" s="34">
-        <v>39.732218000000003</v>
-      </c>
-      <c r="AD33" s="35">
-        <v>112.396655</v>
+      <c r="AC33" s="35">
+        <v>18542.168674698802</v>
+      </c>
+      <c r="AD33" s="34">
+        <v>52453.093846389798</v>
       </c>
       <c r="AF33" s="17">
         <v>2000</v>
@@ -2405,20 +2399,20 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="29" t="s">
+      <c r="T34" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="U34" s="36">
-        <f>AA33*AD33</f>
-        <v>78.677658499999993</v>
-      </c>
-      <c r="V34" s="36"/>
-      <c r="W34" s="31"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="35"/>
+      <c r="U34" s="33">
+        <f>AA33*AD33/1000</f>
+        <v>23.446532949336241</v>
+      </c>
+      <c r="V34" s="33"/>
+      <c r="W34" s="32"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="34"/>
       <c r="AF34" s="17">
         <v>5000</v>
       </c>
@@ -2449,10 +2443,10 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="31"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="32"/>
       <c r="AF35" s="17">
         <v>10000</v>
       </c>
@@ -2483,15 +2477,15 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="29" t="s">
+      <c r="T36" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="30">
-        <f>U32*U32*AB33</f>
-        <v>1337017.3515441946</v>
-      </c>
-      <c r="V36" s="30"/>
-      <c r="W36" s="31"/>
+      <c r="U36" s="36">
+        <f>U32*U32*AB33/1000</f>
+        <v>266.97147860804262</v>
+      </c>
+      <c r="V36" s="36"/>
+      <c r="W36" s="32"/>
       <c r="AF36" s="17">
         <v>30000</v>
       </c>
@@ -2522,10 +2516,10 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="31"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="32"/>
       <c r="AF37" s="17">
         <v>45000</v>
       </c>
@@ -2731,26 +2725,26 @@
     </row>
     <row r="45" spans="1:34" ht="33" customHeight="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
       <c r="T45" s="23"/>
       <c r="U45" s="24"/>
       <c r="V45" s="24"/>
@@ -2759,6 +2753,53 @@
     <row r="46" spans="1:34" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:V7"/>
@@ -2770,53 +2811,6 @@
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="W12:W13"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="AA33:AA34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -2848,16 +2842,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="17"/>

--- a/dokumanlar/LVT/Arayüz.xlsx
+++ b/dokumanlar/LVT/Arayüz.xlsx
@@ -596,20 +596,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,11 +614,14 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1277,7 +1277,7 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="9"/>
@@ -1298,17 +1298,17 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="37">
         <v>80.2</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="31"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="29"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1327,10 +1327,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="8"/>
@@ -1408,15 +1408,15 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="35">
         <f>Z11*AC11/1000</f>
         <v>16.298566265060245</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="32"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="31"/>
       <c r="Z10" s="17" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1443,7 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="9"/>
@@ -1464,23 +1464,23 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="32"/>
-      <c r="Z11" s="34">
+      <c r="T11" s="29"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="31"/>
+      <c r="Z11" s="33">
         <v>0.879</v>
       </c>
-      <c r="AA11" s="34">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="AB11" s="34">
+      <c r="AA11" s="33">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AB11" s="33">
         <v>1004</v>
       </c>
-      <c r="AC11" s="35">
+      <c r="AC11" s="34">
         <v>18542.168674698802</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="33">
         <v>52453.093846389798</v>
       </c>
       <c r="AF11" s="17">
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="29"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1513,20 +1513,20 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="35">
         <f>AA11*AD11/1000</f>
-        <v>15.998193623148889</v>
-      </c>
-      <c r="V12" s="33"/>
-      <c r="W12" s="32"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
+        <v>23.446532949336241</v>
+      </c>
+      <c r="V12" s="35"/>
+      <c r="W12" s="31"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
       <c r="AF12" s="17">
         <v>5000</v>
       </c>
@@ -1557,10 +1557,10 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="32"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="31"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
@@ -1595,15 +1595,15 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="30" t="s">
+      <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="36">
+      <c r="U14" s="30">
         <f>U10*U10*AB11/1000</f>
         <v>266.7058353457461</v>
       </c>
-      <c r="V14" s="36"/>
-      <c r="W14" s="32"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
@@ -1638,10 +1638,10 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="32"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="31"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="9"/>
@@ -1716,14 +1716,14 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="30" t="s">
+      <c r="T17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="37">
         <v>80</v>
       </c>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="31"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
@@ -1739,7 +1739,7 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="29"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1758,10 +1758,10 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="31"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
@@ -1851,15 +1851,15 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="35">
         <f>Z22*AC22/1000</f>
-        <v>15.946265060240968</v>
-      </c>
-      <c r="V21" s="33"/>
-      <c r="W21" s="32"/>
+        <v>15.756428571428598</v>
+      </c>
+      <c r="V21" s="35"/>
+      <c r="W21" s="31"/>
       <c r="Z21" s="17" t="s">
         <v>5</v>
       </c>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="9"/>
@@ -1907,24 +1907,24 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="32"/>
-      <c r="Z22" s="34">
+      <c r="T22" s="29"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="31"/>
+      <c r="Z22" s="33">
         <v>0.86</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="AA22" s="33">
         <v>0.42399999999999999</v>
       </c>
-      <c r="AB22" s="34">
+      <c r="AB22" s="33">
         <v>1003</v>
       </c>
-      <c r="AC22" s="35">
-        <v>18542.168674698802</v>
-      </c>
-      <c r="AD22" s="34">
-        <v>52453.093846389798</v>
+      <c r="AC22" s="34">
+        <v>18321.428571428602</v>
+      </c>
+      <c r="AD22" s="33">
+        <v>51828.652252980399</v>
       </c>
       <c r="AF22" s="17">
         <v>2000</v>
@@ -1937,7 +1937,7 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="29"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1956,20 +1956,20 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="30" t="s">
+      <c r="T23" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="35">
         <f>AA22*AD22</f>
-        <v>22240.111790869272</v>
-      </c>
-      <c r="V23" s="33"/>
-      <c r="W23" s="32"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
+        <v>21975.348555263688</v>
+      </c>
+      <c r="V23" s="35"/>
+      <c r="W23" s="31"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
       <c r="AF23" s="17">
         <v>5000</v>
       </c>
@@ -2000,10 +2000,10 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="32"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="31"/>
       <c r="Z24" s="21"/>
       <c r="AA24" s="21"/>
       <c r="AB24" s="21"/>
@@ -2038,15 +2038,15 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="30" t="s">
+      <c r="T25" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="36">
+      <c r="U25" s="30">
         <f>U21*U21*AB22/1000</f>
-        <v>255.04621947957625</v>
-      </c>
-      <c r="V25" s="36"/>
-      <c r="W25" s="32"/>
+        <v>249.00983645051105</v>
+      </c>
+      <c r="V25" s="30"/>
+      <c r="W25" s="31"/>
       <c r="Z25" s="21"/>
       <c r="AA25" s="21"/>
       <c r="AB25" s="21"/>
@@ -2081,10 +2081,10 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="32"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="31"/>
       <c r="Z26" s="21"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="36" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="9"/>
@@ -2140,7 +2140,7 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="29"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2159,14 +2159,14 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="U28" s="31">
+      <c r="U28" s="37">
         <v>80.400000000000006</v>
       </c>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="31"/>
       <c r="Z28" s="21"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
@@ -2201,10 +2201,10 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="32"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="31"/>
       <c r="Z29" s="21"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="21"/>
@@ -2275,7 +2275,7 @@
       </c>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="36" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="9"/>
@@ -2296,15 +2296,15 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="30" t="s">
+      <c r="T32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="35">
         <f>Z33*AC33/1000</f>
-        <v>16.298566265060245</v>
-      </c>
-      <c r="V32" s="33"/>
-      <c r="W32" s="32"/>
+        <v>15.821999999999999</v>
+      </c>
+      <c r="V32" s="35"/>
+      <c r="W32" s="31"/>
       <c r="Z32" s="17" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2331,7 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="29"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2350,24 +2350,24 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="32"/>
-      <c r="Z33" s="34">
+      <c r="T33" s="29"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="31"/>
+      <c r="Z33" s="33">
         <v>0.879</v>
       </c>
-      <c r="AA33" s="34">
+      <c r="AA33" s="33">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AB33" s="34">
+      <c r="AB33" s="33">
         <v>1005</v>
       </c>
-      <c r="AC33" s="35">
-        <v>18542.168674698802</v>
-      </c>
-      <c r="AD33" s="34">
-        <v>52453.093846389798</v>
+      <c r="AC33" s="34">
+        <v>18000</v>
+      </c>
+      <c r="AD33" s="33">
+        <v>50919.377652050898</v>
       </c>
       <c r="AF33" s="17">
         <v>2000</v>
@@ -2399,20 +2399,20 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="30" t="s">
+      <c r="T34" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U34" s="33">
+      <c r="U34" s="35">
         <f>AA33*AD33/1000</f>
-        <v>23.446532949336241</v>
-      </c>
-      <c r="V34" s="33"/>
-      <c r="W34" s="32"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
+        <v>22.760961810466753</v>
+      </c>
+      <c r="V34" s="35"/>
+      <c r="W34" s="31"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="33"/>
+      <c r="AD34" s="33"/>
       <c r="AF34" s="17">
         <v>5000</v>
       </c>
@@ -2443,10 +2443,10 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="32"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="31"/>
       <c r="AF35" s="17">
         <v>10000</v>
       </c>
@@ -2477,15 +2477,15 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="30" t="s">
+      <c r="T36" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="36">
+      <c r="U36" s="30">
         <f>U32*U32*AB33/1000</f>
-        <v>266.97147860804262</v>
-      </c>
-      <c r="V36" s="36"/>
-      <c r="W36" s="32"/>
+        <v>251.58736241999998</v>
+      </c>
+      <c r="V36" s="30"/>
+      <c r="W36" s="31"/>
       <c r="AF36" s="17">
         <v>30000</v>
       </c>
@@ -2516,10 +2516,10 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="32"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="30"/>
+      <c r="W37" s="31"/>
       <c r="AF37" s="17">
         <v>45000</v>
       </c>
@@ -2725,26 +2725,26 @@
     </row>
     <row r="45" spans="1:34" ht="33" customHeight="1">
       <c r="A45" s="22"/>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
       <c r="T45" s="23"/>
       <c r="U45" s="24"/>
       <c r="V45" s="24"/>
@@ -2753,53 +2753,6 @@
     <row r="46" spans="1:34" ht="45" customHeight="1"/>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="U36:V37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="B45:S45"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AB34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AD33:AD34"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="U34:V35"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="Z33:Z34"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="U25:V26"/>
-    <mergeCell ref="W25:W26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="U28:V29"/>
-    <mergeCell ref="W28:W29"/>
-    <mergeCell ref="AA22:AA23"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="AC22:AC23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="U23:V24"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="W21:W22"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="Z22:Z23"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W14:W15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U17:V18"/>
-    <mergeCell ref="W17:W18"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="AD11:AD12"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:V7"/>
@@ -2811,6 +2764,53 @@
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="W12:W13"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="AD11:AD12"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="U17:V18"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="AA22:AA23"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="AC22:AC23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="U23:V24"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="W21:W22"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="U25:V26"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="Z33:Z34"/>
+    <mergeCell ref="AB33:AB34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AD33:AD34"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="U34:V35"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="B45:S45"/>
+    <mergeCell ref="AA33:AA34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
